--- a/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,107 +483,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nineplus Wi-Fi 6/6E Wireless USB LAN Card - 1.0.0.94</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 24.34.2.571</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>941</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Totals:</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 24.34.2.571</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1863</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>73.40000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Totals:</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1864</v>
-      </c>
-    </row>
+      <c r="C4" s="5" t="n">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="5"/>
     <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
-    <row r="10"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B12" s="6" t="n">
         <v>10923</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="4" t="n">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>2022-08-18</t>
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14"/>
     <row r="15"/>
     <row r="16"/>
     <row r="17"/>
-    <row r="18"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>55.3</v>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>941</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5"/>

--- a/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>957</v>
+        <v>868</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>55.3</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>957</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5"/>

--- a/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>868</v>
+        <v>2658</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>48.8</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>868</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="5"/>

--- a/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="58" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="43" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2658</v>
+        <v>2385</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>26.6</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2658</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="5"/>
@@ -522,25 +519,54 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
@@ -550,24 +576,40 @@
           <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" t="n">
+        <v>10921</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>35</v>
+      </c>
+      <c r="F12" t="n">
         <v>10923</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" s="4" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>mediatek wi-fi 6 mt7921 wireless lan card</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>22.30.1.1339</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>100</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>2022-08-18</t>
         </is>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/UCSantaCruz_driver_summary.xlsx
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2385</v>
+        <v>1407</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>33.2</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2385</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="5"/>
